--- a/src/main/resources/static/excel/档差.xlsx
+++ b/src/main/resources/static/excel/档差.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>编码</t>
   </si>
@@ -37,6 +37,9 @@
     <t>基础的尺码</t>
   </si>
   <si>
+    <t>品类</t>
+  </si>
+  <si>
     <t>可用</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>160/84A(M)</t>
+  </si>
+  <si>
+    <t>上衣</t>
   </si>
 </sst>
 </file>
@@ -68,7 +74,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -86,6 +92,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -551,51 +563,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -605,98 +614,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -704,6 +716,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1031,21 +1046,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="4" max="4" width="112.111111111111" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="26.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="22.2222222222222" customWidth="1"/>
+    <col min="7" max="8" width="22.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,89 +1082,101 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>111</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="b">
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
+    <row r="3" spans="2:9">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excel/档差.xlsx
+++ b/src/main/resources/static/excel/档差.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>编码</t>
   </si>
@@ -37,6 +37,9 @@
     <t>基础的尺码</t>
   </si>
   <si>
+    <t>品牌</t>
+  </si>
+  <si>
     <t>品类</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>160/84A(M)</t>
+  </si>
+  <si>
+    <t>E,MSO</t>
   </si>
   <si>
     <t>上衣</t>
@@ -74,7 +80,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -92,12 +98,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF067D17"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -563,48 +563,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -614,101 +617,98 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -716,9 +716,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1046,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1057,10 +1054,10 @@
     <col min="4" max="4" width="112.111111111111" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="26.2222222222222" customWidth="1"/>
-    <col min="7" max="8" width="22.2222222222222" customWidth="1"/>
+    <col min="7" max="9" width="22.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,101 +1079,113 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>111</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="b">
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+    <row r="4" spans="2:10">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+    <row r="5" spans="2:10">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+    <row r="7" spans="2:10">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+    <row r="8" spans="2:10">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excel/档差.xlsx
+++ b/src/main/resources/static/excel/档差.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>编码</t>
   </si>
@@ -40,7 +40,7 @@
     <t>品牌</t>
   </si>
   <si>
-    <t>品类</t>
+    <t>品类测量组编码</t>
   </si>
   <si>
     <t>可用</t>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>E,MSO</t>
-  </si>
-  <si>
-    <t>上衣</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1043,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1114,8 +1111,8 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
+      <c r="I2" s="4">
+        <v>10101</v>
       </c>
       <c r="J2" s="3" t="b">
         <v>1</v>

--- a/src/main/resources/static/excel/档差.xlsx
+++ b/src/main/resources/static/excel/档差.xlsx
@@ -14,7 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>图片导入暂不支持嵌入式图片导入
+代码列必填，重复会覆盖</t>
+  </si>
   <si>
     <t>编码</t>
   </si>
@@ -705,9 +709,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1040,13 +1050,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="112.111111111111" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -1054,137 +1064,154 @@
     <col min="7" max="9" width="22.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="37" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
         <v>111</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4">
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6">
         <v>10101</v>
       </c>
-      <c r="J2" s="3" t="b">
+      <c r="J3" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/static/excel/档差.xlsx
+++ b/src/main/resources/static/excel/档差.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>图片导入暂不支持嵌入式图片导入
-代码列必填，重复会覆盖</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>编码</t>
   </si>
@@ -709,15 +705,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1050,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="4" max="4" width="112.111111111111" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -1064,154 +1054,137 @@
     <col min="7" max="9" width="22.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2">
+        <v>111</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10101</v>
+      </c>
+      <c r="J2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>111</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="6">
-        <v>10101</v>
-      </c>
-      <c r="J3" s="5" t="b">
-        <v>1</v>
-      </c>
+    <row r="3" spans="2:10">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/static/excel/档差.xlsx
+++ b/src/main/resources/static/excel/档差.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>编码</t>
   </si>
@@ -40,6 +40,9 @@
     <t>品牌</t>
   </si>
   <si>
+    <t>品类</t>
+  </si>
+  <si>
     <t>品类测量组编码</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>E,MSO</t>
+  </si>
+  <si>
+    <t>上衣</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1051,10 +1057,10 @@
     <col min="4" max="4" width="112.111111111111" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="26.2222222222222" customWidth="1"/>
-    <col min="7" max="9" width="22.2222222222222" customWidth="1"/>
+    <col min="7" max="10" width="22.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,43 +1088,49 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4">
         <v>10101</v>
       </c>
-      <c r="J2" s="3" t="b">
+      <c r="K2" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:11">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1127,9 +1139,10 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:11">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1138,9 +1151,10 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:11">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1149,9 +1163,10 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:11">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1160,9 +1175,10 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:11">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1171,9 +1187,10 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:11">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1182,7 +1199,8 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
